--- a/RNN_python/output_data_test/anom_data14.xlsx
+++ b/RNN_python/output_data_test/anom_data14.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43112</v>
       </c>
       <c r="D2" t="n">
-        <v>13.81413497878276</v>
+        <v>28.35424409021468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43112.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9.932835237804369</v>
+        <v>124.1090923874045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43112.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>19.42900018289255</v>
+        <v>70.51264805580973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43112.125</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6920401236525</v>
+        <v>65.72259557100432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43112.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>38.57804557230999</v>
+        <v>67.89135077590043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43112.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>45.82830662768311</v>
+        <v>77.65876201535767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43112.25</v>
       </c>
       <c r="D8" t="n">
-        <v>71.13098522236166</v>
+        <v>114.5305431213985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43112.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>242.8183867272276</v>
+        <v>200.2436222432625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43112.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>496.9977644488951</v>
+        <v>295.2893350879355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43112.375</v>
       </c>
       <c r="D11" t="n">
-        <v>452.5962259297469</v>
+        <v>342.7945402151245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43112.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>390.9788578572484</v>
+        <v>356.4103957329949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43112.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>330.3051764788221</v>
+        <v>344.232832059483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43112.5</v>
       </c>
       <c r="D14" t="n">
-        <v>290.0129667318259</v>
+        <v>314.9970283285863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43112.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>257.0924665902118</v>
+        <v>277.7375694375893</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43112.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>225.079065402621</v>
+        <v>236.3110634999532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43112.625</v>
       </c>
       <c r="D17" t="n">
-        <v>192.9980378907938</v>
+        <v>194.2648967203376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43112.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>161.5871924802805</v>
+        <v>155.4283474640801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43112.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>131.615128532541</v>
+        <v>123.4193438222795</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43112.75</v>
       </c>
       <c r="D20" t="n">
-        <v>103.7721564506031</v>
+        <v>97.29896148262816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43112.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>78.85136067290347</v>
+        <v>74.85278794892537</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43112.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>57.71712082549453</v>
+        <v>57.58695640152838</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43112.875</v>
       </c>
       <c r="D23" t="n">
-        <v>41.17336283809838</v>
+        <v>45.56906277279812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43112.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>29.82451360811575</v>
+        <v>33.58657833503811</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43112.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>23.91530466725391</v>
+        <v>20.9232442676911</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43112</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43112.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43112.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43112.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43112.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43112.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43112.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43112.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43112.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43112.375</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43112.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43112.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43112.5</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43112.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>170</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43112.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43112.625</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43112.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43112.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43112.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43112.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43112.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43112.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43112.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43112.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data14.xlsx
+++ b/RNN_python/output_data_test/anom_data14.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43112</v>
+        <v>43235</v>
       </c>
       <c r="D2" t="n">
-        <v>28.35424409021468</v>
+        <v>10.91560491660265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43112.04166666666</v>
+        <v>43235.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>124.1090923874045</v>
+        <v>4.140915308151278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43112.08333333334</v>
+        <v>43235.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>70.51264805580973</v>
+        <v>3.500715409688439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43112.125</v>
+        <v>43235.125</v>
       </c>
       <c r="D5" t="n">
-        <v>65.72259557100432</v>
+        <v>3.138370213399696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43112.16666666666</v>
+        <v>43235.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>67.89135077590043</v>
+        <v>1.344467974295128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43112.20833333334</v>
+        <v>43235.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>77.65876201535767</v>
+        <v>-3.078346928430378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43112.25</v>
+        <v>43235.25</v>
       </c>
       <c r="D8" t="n">
-        <v>114.5305431213985</v>
+        <v>-5.450189330227857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43112.29166666666</v>
+        <v>43235.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>200.2436222432625</v>
+        <v>27.72324080288043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43112.33333333334</v>
+        <v>43235.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>295.2893350879355</v>
+        <v>298.8093959661102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43112.375</v>
+        <v>43235.375</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7945402151245</v>
+        <v>405.6540108426593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43112.41666666666</v>
+        <v>43235.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>356.4103957329949</v>
+        <v>414.9261343013143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43112.45833333334</v>
+        <v>43235.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>344.232832059483</v>
+        <v>276.0215839920624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43112.5</v>
+        <v>43235.5</v>
       </c>
       <c r="D14" t="n">
-        <v>314.9970283285863</v>
+        <v>253.6103251616572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43112.54166666666</v>
+        <v>43235.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>277.7375694375893</v>
+        <v>211.7572259590455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43112.58333333334</v>
+        <v>43235.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>236.3110634999532</v>
+        <v>157.654315303755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43112.625</v>
+        <v>43235.625</v>
       </c>
       <c r="D17" t="n">
-        <v>194.2648967203376</v>
+        <v>116.1461246578501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43112.66666666666</v>
+        <v>43235.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>155.4283474640801</v>
+        <v>77.28498945863922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43112.70833333334</v>
+        <v>43235.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>123.4193438222795</v>
+        <v>52.43567663944153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43112.75</v>
+        <v>43235.75</v>
       </c>
       <c r="D20" t="n">
-        <v>97.29896148262816</v>
+        <v>35.83399643552482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43112.79166666666</v>
+        <v>43235.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>74.85278794892537</v>
+        <v>25.16931547337758</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43112.83333333334</v>
+        <v>43235.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>57.58695640152838</v>
+        <v>18.47314391650049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43112.875</v>
+        <v>43235.875</v>
       </c>
       <c r="D23" t="n">
-        <v>45.56906277279812</v>
+        <v>14.4580290408084</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43112.91666666666</v>
+        <v>43235.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>33.58657833503811</v>
+        <v>12.32680290671317</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43112.95833333334</v>
+        <v>43235.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20.9232442676911</v>
+        <v>10.99044761892131</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43112</v>
+        <v>43235</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43112.04166666666</v>
+        <v>43235.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43112.08333333334</v>
+        <v>43235.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43112.125</v>
+        <v>43235.125</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43112.16666666666</v>
+        <v>43235.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43112.20833333334</v>
+        <v>43235.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43112.25</v>
+        <v>43235.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43112.29166666666</v>
+        <v>43235.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43112.33333333334</v>
+        <v>43235.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>420</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43112.375</v>
+        <v>43235.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43112.41666666666</v>
+        <v>43235.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>370</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43112.45833333334</v>
+        <v>43235.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43112.5</v>
+        <v>43235.5</v>
       </c>
       <c r="D14" t="n">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43112.54166666666</v>
+        <v>43235.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>267</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43112.58333333334</v>
+        <v>43235.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43112.625</v>
+        <v>43235.625</v>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43112.66666666666</v>
+        <v>43235.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43112.70833333334</v>
+        <v>43235.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43112.75</v>
+        <v>43235.75</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43112.79166666666</v>
+        <v>43235.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43112.83333333334</v>
+        <v>43235.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43112.875</v>
+        <v>43235.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43112.91666666666</v>
+        <v>43235.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43112.95833333334</v>
+        <v>43235.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
